--- a/biology/Histoire de la zoologie et de la botanique/Michel_Charles_Durieu_de_Maisonneuve/Michel_Charles_Durieu_de_Maisonneuve.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michel_Charles_Durieu_de_Maisonneuve/Michel_Charles_Durieu_de_Maisonneuve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Charles Durieu de Maisonneuve est un militaire et botaniste français né le 9 décembre 1796 à Saint-Eutrope-de-Born en Lot-et-Garonne et décédé le 20 février 1878 à Bordeaux[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Charles Durieu de Maisonneuve est un militaire et botaniste français né le 9 décembre 1796 à Saint-Eutrope-de-Born en Lot-et-Garonne et décédé le 20 février 1878 à Bordeaux,.
 Il a principalement herborisé en Algérie et en Gironde et était spécialiste des cryptogames. Après sa carrière militaire, il a été responsable des jardins de Bordeaux.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Enfance et éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils unique de Marie-Elisabeth de Calbiac et d'Étienne du Rieu de Maisonneuve de Bonnayrac, écuyer, capitaine au régiment Royal-Vaisseaux, chevalier de l'Ordre royal et militaire de Saint-Louis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils unique de Marie-Elisabeth de Calbiac et d'Étienne du Rieu de Maisonneuve de Bonnayrac, écuyer, capitaine au régiment Royal-Vaisseaux, chevalier de l'Ordre royal et militaire de Saint-Louis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Vie familiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a épousé le 8 novembre 1827 Marguerite-Hélène-Ursule de Tessières de Miremont (1803-1878), nièce de Philippe-Paul de Tessières de Miremont, avec qui il a eu deux fils et une fille[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a épousé le 8 novembre 1827 Marguerite-Hélène-Ursule de Tessières de Miremont (1803-1878), nièce de Philippe-Paul de Tessières de Miremont, avec qui il a eu deux fils et une fille,.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Carrière militaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il reçoit une formation militaire aux écoles de Brienne et Saint-Cyr[6]. Le 4 juin 1817, il est affecté comme sous-lieutenant au 13e régiment de ligne[7]. Il y est promu lieutenant le 11 avril 1826[8].
-Il est promu capitaine au 63e de ligne le 20 janvier 1839[9].
-Il participe en avril 1823 à l'expédition d'Espagne, puis il explore les Asturies[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit une formation militaire aux écoles de Brienne et Saint-Cyr. Le 4 juin 1817, il est affecté comme sous-lieutenant au 13e régiment de ligne. Il y est promu lieutenant le 11 avril 1826.
+Il est promu capitaine au 63e de ligne le 20 janvier 1839.
+Il participe en avril 1823 à l'expédition d'Espagne, puis il explore les Asturies.
 Il participe à l'expédition de Morée.
 </t>
         </is>
@@ -610,13 +628,53 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Missions scientifiques
-En 1835, il explore les Asturies. Il récolte des plantes vasculaires dont il confie l'étude à Jacques Étienne Gay (Gay 1836).
-Au lendemain de la conquête de l'Algérie, il est chargé par le Gouvernement d'une mission scientifique en Algérie, sous la conduite de Jean-Baptiste Bory de Saint-Vincent. Il s'y rend de fin 1839 à 1842[11]. Il publiera par la suite la flore d'Algérie[12].
-En 1853, il entre au service de la ville de Bordeaux, chargé du cours municipal de botanique. En 1858, après la disparition de Jean-François Laterrade (en), il devient directeur du Jardin des plantes de Bordeaux et prend une part active dans sa transformation, aux côtés de l'architecte de la ville Charles Burguet et du paysagiste L.B. Fischer[13]. Notamment en 1857, il organise le transfert du magnolia géant, du vieux jardin botanique de la Chartreuse au nouveau Jardin public[14]. Il prit sa retraite en 1876[15] et décède deux ans après à son domicile du 30 rue Maubourguet, situé à proximité du Jardin botanique.
-Publications
-En 1825, il adhère à la Société linnéenne de Bordeaux. Il entreprend la rédaction de la partie cryptogamique du catalogue raisonné des plantes qui croissent spontanément dans le département de la Dordogne, mais doit renoncer à l'achever, puisqu'il est appelé à rejoindre la Commission scientifique en Algérie[16]. Il était également membre fondateur de la Société botanique de France[1].
-Ouvrages</t>
+          <t>Missions scientifiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1835, il explore les Asturies. Il récolte des plantes vasculaires dont il confie l'étude à Jacques Étienne Gay (Gay 1836).
+Au lendemain de la conquête de l'Algérie, il est chargé par le Gouvernement d'une mission scientifique en Algérie, sous la conduite de Jean-Baptiste Bory de Saint-Vincent. Il s'y rend de fin 1839 à 1842. Il publiera par la suite la flore d'Algérie.
+En 1853, il entre au service de la ville de Bordeaux, chargé du cours municipal de botanique. En 1858, après la disparition de Jean-François Laterrade (en), il devient directeur du Jardin des plantes de Bordeaux et prend une part active dans sa transformation, aux côtés de l'architecte de la ville Charles Burguet et du paysagiste L.B. Fischer. Notamment en 1857, il organise le transfert du magnolia géant, du vieux jardin botanique de la Chartreuse au nouveau Jardin public. Il prit sa retraite en 1876 et décède deux ans après à son domicile du 30 rue Maubourguet, situé à proximité du Jardin botanique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Charles_Durieu_de_Maisonneuve</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Charles_Durieu_de_Maisonneuve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités scientifiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1825, il adhère à la Société linnéenne de Bordeaux. Il entreprend la rédaction de la partie cryptogamique du catalogue raisonné des plantes qui croissent spontanément dans le département de la Dordogne, mais doit renoncer à l'achever, puisqu'il est appelé à rejoindre la Commission scientifique en Algérie. Il était également membre fondateur de la Société botanique de France.
+</t>
         </is>
       </c>
     </row>
